--- a/biology/Botanique/Dioclea/Dioclea.xlsx
+++ b/biology/Botanique/Dioclea/Dioclea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioclea est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, et dont l"espèce-type est Dioclea sericea Kunth..
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clade Dioclea qui comprenait initialement quatre genres et une soixantaine d'espèces (4 Cleobulia, 1 Cymbosema, 50 Dioclea, 1 Luzonia, 3-4 Macropsychanthus) été révisé en 2020.
 Cleobulia et Cymbosema ont été conservés.
@@ -519,7 +533,7 @@
 Dioclea paniculata se retrouve dans le clade de Galactie ;
 Dioclea subg. Dioclea est apparue comme frère d'un clade composé de Cleobulia et Cymbosema ;
 les espèces des sous-genres Dioclea subg. Pachylobium et Dioclea subg. Platylobium se retrouvent dans les genres Luzonia et Macropsychanthus.
-En tenant compte de ces données, le genre Dioclea compte alors 46 espèces reconnues phyllogénétiquement[3],[4].
+En tenant compte de ces données, le genre Dioclea compte alors 46 espèces reconnues phyllogénétiquement,.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (04 juin 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (04 juin 2022) :
 Dioclea aberrans Pittier
 Dioclea albiflora R.S.Cowan
 Dioclea apurensis Kunth
@@ -578,7 +594,7 @@
 Dioclea virgata (Rich.) Amshoff
 Dioclea virgata var. crenata R.H.Maxwell
 Dioclea virgata var. virgata (Rich.) Amshoff
-Selon World Flora Online (WFO)       (4 juin 2020)[5] :
+Selon World Flora Online (WFO)       (4 juin 2020) :
 Dioclea albiflora Cowan
 Dioclea apiculata R.H. Maxwell
 Dioclea apurensis Kunth
@@ -638,7 +654,7 @@
 Dioclea violacea Benth.
 Dioclea virgata (Rich.) Amshoff
 Dioclea wilsonii Standl.
-Selon The Plant List            (7 novembre 2018)[6] :
+Selon The Plant List            (7 novembre 2018) :
 Dioclea albiflora Cowan
 Dioclea apiculata R.H. Maxwell
 Dioclea apurensis Kunth
